--- a/docs and files/sample data.xlsx
+++ b/docs and files/sample data.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev Code\Users\KYASEH\source\repos\sales\docs and files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +23,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Pay for Purchase</t>
+  </si>
+  <si>
+    <t>Purchase Expenses</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Advance Booking</t>
+  </si>
+  <si>
+    <t>Total Bill</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +90,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +408,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D3" s="4">
+        <f>C4+D4</f>
+        <v>1500</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F4+G4</f>
+        <v>6500</v>
+      </c>
+      <c r="J3" s="4">
+        <f>I4+J4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C5-D5</f>
+        <v>1500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F5-G5</f>
+        <v>1500</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f>I5-J5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <f>SUM(C7:C19)</f>
+        <v>4000</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(D7:D19)</f>
+        <v>2500</v>
+      </c>
+      <c r="F5" s="2">
+        <f>SUM(F7:F19)</f>
+        <v>4000</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM(G7:G19)</f>
+        <v>2500</v>
+      </c>
+      <c r="I5" s="2">
+        <f>SUM(I7:I19)</f>
+        <v>200</v>
+      </c>
+      <c r="J5" s="2">
+        <f>SUM(J7:J19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>120</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>80</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>